--- a/biology/Zoologie/L'Enfant_loup/L'Enfant_loup.xlsx
+++ b/biology/Zoologie/L'Enfant_loup/L'Enfant_loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Enfant loup (Entrelobos), est un film germano-franco-espagnol réalisé par Gerardo Olivares, sorti en 2010. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcos, âgé de 7 ans,  et son grand frère sont bergers pour aider leurs parents, métayers d'un riche propriétaire dans la région des montagnes espagnoles de la Sierra Morena. Une attaque de loups provoque la mort de 5 chèvres. Déjà très endetté, le père de Marcos craint d'être chassé de son emploi et de sa maison, il résout le problème en donnant son jeune fils au patron, ce dernier l'envoie comme aide berger dans une partie très reculée de la montagne où Atanasio, un vieux berger solitaire vivant dans une grotte s'occupe d'un troupeau.
 Atanasio apprend à Marcos comment chasser, se soigner avec les plantes, composer avec les loups qui occupent la montagne, qui est aussi le refuge de rebelles insurgés, recherchés par la garde civile, que protège Solale. Mais un jour, le vieux berger meurt et Marcos se retrouve seul. Il survit tant bien que mal et apprivoise la meute de loups.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'Enfant loup
 Titre original : Entrelobos
@@ -572,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Juan José Ballesta (VF : Michaël Cermeno) : Marcos (es) à 20 ans
 Manuel Camacho (es) (VF : Sophie O) : Marcos à 7 ans
@@ -612,7 +630,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -630,7 +648,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le jeune acteur Manuel Camacho est sélectionné pour le Goya de la meilleure révélation en 2011.</t>
         </is>
@@ -642,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L%27Enfant_loup</t>
+          <t>L'Enfant_loup</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -660,7 +680,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Au-delà de l'intrigue peu développée, le film s'attache à présenter des scènes de la nature et de ses animaux.
 La scène finale du film, située en 2010, montre le véritable Marcos, Marcos Rodríguez Pantoja, qui déclare « J'ai plus appris sur la vie en vivant avec les loups qu'en vivant avec les hommes. »
